--- a/data/4/20230615-a1r-nc-session4-b_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-b_transcript.xlsx
@@ -1,195 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A8EF6-6A4A-4C4C-9593-8E111C481408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:12"</t>
-  </si>
-  <si>
-    <t>I'm Terry. I'm from the Detroit area, 59 years old.</t>
-  </si>
-  <si>
-    <t>"12:43"</t>
-  </si>
-  <si>
-    <t>Well, I don't think of foreigners have any business in our election, so for sure, we need to close that loophole and it should have been open to begin with. It's kind of shady that that loophole was even there. I think we should not allow the money to get any bigger for elections. I think it's Shady.</t>
-  </si>
-  <si>
-    <t>"13:20"</t>
-  </si>
-  <si>
-    <t>I wish I had something to add to this is just really confusing to me all the financing talk and and all that. But yeah, I wish I had something to add.</t>
-  </si>
-  <si>
-    <t>"13:38"</t>
-  </si>
-  <si>
-    <t>I think when they talk about money and votes, it sounds like people are buying elections and I think it stinks.</t>
-  </si>
-  <si>
-    <t>"15:49"</t>
-  </si>
-  <si>
-    <t>I think they should expose all donations over 200 dollars and keep it right there where it's been</t>
-  </si>
-  <si>
-    <t>"16:00"</t>
-  </si>
-  <si>
-    <t>"16:10"</t>
-  </si>
-  <si>
-    <t>I don't think we need vouchers to donate, I think they just need to do a good job.</t>
-  </si>
-  <si>
-    <t>"16:28"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm against the public funds for the vouchers. I think our taxpayer dollars probably be used for something better.</t>
-  </si>
-  <si>
-    <t>"17:50"</t>
-  </si>
-  <si>
-    <t>I think that independent we just became commissions are a much-needed thing here in Indiana. Our legislature packed up all of our districts to to specifically get rid of incumbents that they didn't like and make their party in a better position everywhere. And and then the other party will get in, they'll do the fact that this needs to be no party.</t>
-  </si>
-  <si>
-    <t>"20:02"</t>
-  </si>
-  <si>
-    <t>I think they should make it a national holiday. The simple fact that people can get out to vote easier if they do give people a day off.</t>
-  </si>
-  <si>
-    <t>Just for that reason, alone people will have a greater chance of voting 16 year olds voting for School elections. I don't see a problem with it. I think parents can be more responsible with their kids. I think kids should have a chance to vote.</t>
-  </si>
-  <si>
-    <t>"20:50"</t>
-  </si>
-  <si>
-    <t>I think I'm against the voting, that it's a Civic obligation, I feel like if you're forced to vote for and campaign or whatever that if you don't have enough information on the candidates, that you might just randomly vote for a person that might not be the best choice, just because you have an obligation now to vote for somebody or if not, you'll be fine.</t>
-  </si>
-  <si>
-    <t>"21:20"</t>
-  </si>
-  <si>
-    <t>Yes, I agree. You should not be forced to do things that you should desire to do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Should not be forced to vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It sounds like that does not sound like a free country to me.</t>
-  </si>
-  <si>
-    <t>"27:56"</t>
-  </si>
-  <si>
-    <t>It's been a pleasure, everybody.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -265,50 +119,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -377,14 +231,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1459,310 +1305,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="11">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="11">
+      <c r="A2" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:12"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I'm Terry. I'm from the Detroit area, 59 years old.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="11">
+      <c r="A3" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"12:43"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Well, I don't think of foreigners have any business in our election, so for sure, we need to close that loophole and it should have been open to begin with. It's kind of shady that that loophole was even there. I think we should not allow the money to get any bigger for elections. I think it's Shady.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="11">
+      <c r="A4" s="3" t="n">
         <v>48622</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"13:20"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>I wish I had something to add to this is just really confusing to me all the financing talk and and all that. But yeah, I wish I had something to add.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="11">
+      <c r="A5" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"13:38"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>I think when they talk about money and votes, it sounds like people are buying elections and I think it stinks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="11">
+      <c r="A6" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"15:49"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>I think they should expose all donations over 200 dollars and keep it right there where it's been</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="11">
+      <c r="A7" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"15:49"</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" ht="20" customHeight="1" s="11">
+      <c r="A8" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"16:00"</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="11">
+      <c r="A9" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"16:10"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>I don't think we need vouchers to donate, I think they just need to do a good job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="11">
+      <c r="A10" s="3" t="n">
         <v>48622</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"16:28"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I'm against the public funds for the vouchers. I think our taxpayer dollars probably be used for something better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="11">
+      <c r="A11" s="3" t="n">
         <v>48692</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"17:50"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I think that independent we just became commissions are a much-needed thing here in Indiana. Our legislature packed up all of our districts to to specifically get rid of incumbents that they didn't like and make their party in a better position everywhere. And and then the other party will get in, they'll do the fact that this needs to be no party.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="11">
+      <c r="A12" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"20:02"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I think they should make it a national holiday. The simple fact that people can get out to vote easier if they do give people a day off.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="11">
+      <c r="A13" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"20:02"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Just for that reason, alone people will have a greater chance of voting 16 year olds voting for School elections. I don't see a problem with it. I think parents can be more responsible with their kids. I think kids should have a chance to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="11">
+      <c r="A14" s="3" t="n">
         <v>48622</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"20:50"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>I think I'm against the voting, that it's a Civic obligation, I feel like if you're forced to vote for and campaign or whatever that if you don't have enough information on the candidates, that you might just randomly vote for a person that might not be the best choice, just because you have an obligation now to vote for somebody or if not, you'll be fine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="11">
+      <c r="A15" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"21:20"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I agree. You should not be forced to do things that you should desire to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="11">
+      <c r="A16" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"21:20"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Should not be forced to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="11">
+      <c r="A17" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"21:20"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It sounds like that does not sound like a free country to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="11">
+      <c r="A18" s="3" t="n">
         <v>48616</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"27:56"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>It's been a pleasure, everybody.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5110F-BF80-8E4A-B49F-25D3815AFE39}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>